--- a/2nd_session/KhaosatchucnangWebsitequanlyvsbanoto.xlsx
+++ b/2nd_session/KhaosatchucnangWebsitequanlyvsbanoto.xlsx
@@ -5,17 +5,34 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.IT2024-2025\5. PHAN TICH THIET KE HE THONG THONG TIN\1.DA\buoi 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.IT2024-2025\5. PHAN TICH THIET KE HE THONG THONG TIN\1.DA\Car_Showroom_Management\2nd_session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CA4213-92E9-4C91-92D2-3CCA8FD72010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCC9B1F-1055-4BF7-B6CC-079372E4045A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_2et92p0" localSheetId="0">Sheet1!$F$120</definedName>
+    <definedName name="_3znysh7" localSheetId="0">Sheet1!$F$59</definedName>
+    <definedName name="_Hlk175649631" localSheetId="0">Sheet1!$F$991</definedName>
+    <definedName name="_Hlk177378791" localSheetId="0">Sheet1!$F$9</definedName>
+    <definedName name="_Hlk179638804" localSheetId="0">Sheet1!$F$122</definedName>
+    <definedName name="_Hlk180987990" localSheetId="0">Sheet1!$F$205</definedName>
+    <definedName name="_Hlk180994823" localSheetId="0">Sheet1!$F$250</definedName>
+    <definedName name="_Toc183113839" localSheetId="0">Sheet1!$F$56</definedName>
+    <definedName name="_Toc183113840" localSheetId="0">Sheet1!$F$57</definedName>
+    <definedName name="_Toc183113842" localSheetId="0">Sheet1!$F$121</definedName>
+    <definedName name="_Toc183113843" localSheetId="0">Sheet1!$F$163</definedName>
+    <definedName name="_Toc183113844" localSheetId="0">Sheet1!$F$318</definedName>
+    <definedName name="_Toc183113845" localSheetId="0">Sheet1!$F$319</definedName>
+    <definedName name="_Toc183113846" localSheetId="0">Sheet1!$F$320</definedName>
+    <definedName name="_Toc183113847" localSheetId="0">Sheet1!$F$344</definedName>
+    <definedName name="_Toc183113848" localSheetId="0">Sheet1!$F$408</definedName>
+    <definedName name="_Toc183113849" localSheetId="0">Sheet1!$F$479</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$65</definedName>
   </definedNames>
   <calcPr calcId="191029" calcOnSave="0"/>
@@ -39,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="150">
   <si>
     <t>Tên hệ thống</t>
   </si>
@@ -477,13 +494,25 @@
   </si>
   <si>
     <t>2.5.11</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Tên Usecase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +525,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -566,7 +608,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -651,14 +693,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -680,7 +796,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -747,8 +862,44 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,16 +922,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>223630</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>74544</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>492572</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>40366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>107674</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>99751</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1100516</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>20750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -809,8 +960,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7827065" y="1192696"/>
-          <a:ext cx="6758609" cy="4042272"/>
+          <a:off x="492572" y="12803866"/>
+          <a:ext cx="6742044" cy="3980884"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1085,912 +1236,2224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="46.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="34.125" customWidth="1"/>
+    <col min="9" max="9" width="63.25" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="34.125" customWidth="1"/>
+    <col min="14" max="14" width="63.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:14" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="1:14" s="40" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="F3" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="F4" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
+      <c r="K4" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="39"/>
+    </row>
+    <row r="5" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="F5" s="34">
+        <v>1</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="H5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="K5" s="34">
+        <v>1</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="30"/>
+    </row>
+    <row r="6" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="F6" s="34">
+        <v>2</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="H6" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="K6" s="34">
+        <v>2</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="30"/>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="F7" s="34">
+        <v>3</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="K7" s="34">
+        <v>3</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="30"/>
+    </row>
+    <row r="8" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="F8" s="34">
+        <v>4</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="30"/>
+      <c r="K8" s="34">
+        <v>4</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="30"/>
+    </row>
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="F9" s="34">
+        <v>5</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="H9" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="K9" s="34">
+        <v>5</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="30"/>
+    </row>
+    <row r="10" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="F10" s="34">
+        <v>6</v>
+      </c>
+      <c r="G10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="H10" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="K10" s="34">
+        <v>6</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="30"/>
+    </row>
+    <row r="11" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="F11" s="34">
+        <v>7</v>
+      </c>
+      <c r="G11" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="H11" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="30"/>
+      <c r="K11" s="34">
+        <v>7</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="30"/>
+    </row>
+    <row r="12" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="F12" s="34">
+        <v>8</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="H12" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="K12" s="34">
+        <v>8</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="30"/>
+    </row>
+    <row r="13" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="F13" s="34">
+        <v>9</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="K13" s="34">
+        <v>9</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="30"/>
+    </row>
+    <row r="14" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="F14" s="34">
+        <v>10</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="K14" s="34">
+        <v>10</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" s="30"/>
+    </row>
+    <row r="15" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="F15" s="34">
+        <v>11</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="K15" s="34">
+        <v>11</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="30"/>
+    </row>
+    <row r="16" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="F16" s="34">
+        <v>12</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="K16" s="34">
+        <v>12</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="30"/>
+    </row>
+    <row r="17" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="F17" s="34">
+        <v>13</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="K17" s="34">
+        <v>13</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="30"/>
+    </row>
+    <row r="18" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="F18" s="34">
+        <v>14</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="30"/>
+      <c r="K18" s="34">
+        <v>14</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="30"/>
+    </row>
+    <row r="19" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+      <c r="F19" s="34">
+        <v>15</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="K19" s="34">
+        <v>15</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="30"/>
+    </row>
+    <row r="20" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="F20" s="34">
+        <v>16</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="K20" s="34">
+        <v>16</v>
+      </c>
+      <c r="L20" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="30"/>
+    </row>
+    <row r="21" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
+      <c r="F21" s="34">
+        <v>17</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="K21" s="34">
+        <v>17</v>
+      </c>
+      <c r="L21" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" s="30"/>
+    </row>
+    <row r="22" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+      <c r="F22" s="34">
+        <v>18</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="K22" s="34">
+        <v>18</v>
+      </c>
+      <c r="L22" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="30"/>
+    </row>
+    <row r="23" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+      <c r="F23" s="34">
+        <v>19</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="K23" s="34">
+        <v>19</v>
+      </c>
+      <c r="L23" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="30"/>
+    </row>
+    <row r="24" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="F24" s="34">
+        <v>20</v>
+      </c>
+      <c r="G24" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="H24" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="K24" s="34">
+        <v>20</v>
+      </c>
+      <c r="L24" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="M24" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="30"/>
+    </row>
+    <row r="25" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+      <c r="F25" s="34">
+        <v>21</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="K25" s="34">
+        <v>21</v>
+      </c>
+      <c r="L25" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="N25" s="30"/>
+    </row>
+    <row r="26" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
+      <c r="F26" s="34">
+        <v>22</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="K26" s="34">
+        <v>22</v>
+      </c>
+      <c r="L26" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="M26" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" s="30"/>
+    </row>
+    <row r="27" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-    </row>
-    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="F27" s="34">
+        <v>23</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="K27" s="34">
+        <v>23</v>
+      </c>
+      <c r="L27" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="M27" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="N27" s="30"/>
+    </row>
+    <row r="28" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="F28" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39"/>
+      <c r="K28" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="39"/>
+    </row>
+    <row r="29" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
+      <c r="F29" s="34">
+        <f>F27+1</f>
+        <v>24</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="30"/>
+      <c r="K29" s="34">
+        <f>K27+1</f>
+        <v>24</v>
+      </c>
+      <c r="L29" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="M29" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29" s="30"/>
+    </row>
+    <row r="30" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
+      <c r="F30" s="34">
+        <f>F29+1</f>
+        <v>25</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="30"/>
+      <c r="K30" s="34">
+        <f>K29+1</f>
+        <v>25</v>
+      </c>
+      <c r="L30" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="M30" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N30" s="30"/>
+    </row>
+    <row r="31" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
+      <c r="F31" s="34">
+        <f t="shared" ref="F31:F64" si="0">F30+1</f>
+        <v>26</v>
+      </c>
+      <c r="G31" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="H31" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="30"/>
+      <c r="K31" s="34">
+        <f t="shared" ref="K31:K64" si="1">K30+1</f>
+        <v>26</v>
+      </c>
+      <c r="L31" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="M31" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="N31" s="30"/>
+    </row>
+    <row r="32" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" s="10" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
+      <c r="F32" s="34">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G32" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="H32" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="30"/>
+      <c r="K32" s="34">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="L32" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="M32" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32" s="30"/>
+    </row>
+    <row r="33" spans="1:14" s="42" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="F33" s="34">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="G33" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="H33" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="30"/>
+      <c r="K33" s="34">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="L33" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="M33" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="N33" s="30"/>
+    </row>
+    <row r="34" spans="1:14" s="42" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="F34" s="34">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G34" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="H34" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="30"/>
+      <c r="K34" s="34">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="L34" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="M34" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N34" s="30"/>
+    </row>
+    <row r="35" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="F35" s="34">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="30"/>
+      <c r="K35" s="34">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="L35" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="M35" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="30"/>
+    </row>
+    <row r="36" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+      <c r="F36" s="34">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="30"/>
+      <c r="K36" s="34">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="L36" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="M36" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="N36" s="30"/>
+    </row>
+    <row r="37" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+      <c r="F37" s="34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37" s="30"/>
+      <c r="K37" s="34">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="L37" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="M37" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="N37" s="30"/>
+    </row>
+    <row r="38" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+      <c r="F38" s="34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="30"/>
+      <c r="K38" s="34">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="L38" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="M38" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="N38" s="30"/>
+    </row>
+    <row r="39" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
+      <c r="F39" s="34">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="30"/>
+      <c r="K39" s="34">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="L39" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="M39" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39" s="30"/>
+    </row>
+    <row r="40" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
+      <c r="F40" s="34">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G40" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="H40" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" s="30"/>
+      <c r="K40" s="34">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="L40" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="M40" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="N40" s="30"/>
+    </row>
+    <row r="41" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="s">
+      <c r="F41" s="34">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G41" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="H41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="30"/>
+      <c r="K41" s="34">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="L41" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="M41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N41" s="30"/>
+    </row>
+    <row r="42" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="s">
+      <c r="F42" s="34">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="G42" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="H42" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42" s="30"/>
+      <c r="K42" s="34">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="L42" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="M42" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="N42" s="30"/>
+    </row>
+    <row r="43" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="22" t="s">
+      <c r="F43" s="34">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I43" s="30"/>
+      <c r="K43" s="34">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="L43" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="M43" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="N43" s="30"/>
+    </row>
+    <row r="44" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="F44" s="34">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" s="30"/>
+      <c r="K44" s="34">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="L44" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="M44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="N44" s="30"/>
+    </row>
+    <row r="45" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
+      <c r="F45" s="34">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" s="30"/>
+      <c r="K45" s="34">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="L45" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="M45" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="N45" s="30"/>
+    </row>
+    <row r="46" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="F46" s="34">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46" s="30"/>
+      <c r="K46" s="34">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="L46" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="M46" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="N46" s="30"/>
+    </row>
+    <row r="47" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22" t="s">
+      <c r="F47" s="34">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="G47" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="H47" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="I47" s="30"/>
+      <c r="K47" s="34">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="L47" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="M47" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="N47" s="30"/>
+    </row>
+    <row r="48" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="22" t="s">
+      <c r="F48" s="34">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="G48" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="H48" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="I48" s="30"/>
+      <c r="K48" s="34">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="L48" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="M48" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="N48" s="30"/>
+    </row>
+    <row r="49" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="22" t="s">
+      <c r="F49" s="34">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="G49" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="H49" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="I49" s="30"/>
+      <c r="K49" s="34">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="L49" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="M49" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="N49" s="30"/>
+    </row>
+    <row r="50" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
+      <c r="F50" s="34">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G50" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="H50" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="I50" s="30"/>
+      <c r="K50" s="34">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="L50" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="M50" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="N50" s="30"/>
+    </row>
+    <row r="51" spans="1:14" s="42" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="22" t="s">
+      <c r="F51" s="34">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="G51" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="H51" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="I51" s="30"/>
+      <c r="K51" s="34">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="L51" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="M51" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="N51" s="30"/>
+    </row>
+    <row r="52" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="22" t="s">
+      <c r="F52" s="34">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="G52" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="H52" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="I52" s="30"/>
+      <c r="K52" s="34">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="L52" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="M52" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="N52" s="30"/>
+    </row>
+    <row r="53" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="22" t="s">
+      <c r="F53" s="34">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="G53" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="H53" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="I53" s="30"/>
+      <c r="K53" s="34">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="L53" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="M53" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="N53" s="30"/>
+    </row>
+    <row r="54" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="F54" s="34">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="G54" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="H54" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="I54" s="30"/>
+      <c r="K54" s="34">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="L54" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="M54" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="N54" s="30"/>
+    </row>
+    <row r="55" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
+      <c r="F55" s="34">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G55" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="H55" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="I55" s="30"/>
+      <c r="K55" s="34">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="L55" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="M55" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="N55" s="30"/>
+    </row>
+    <row r="56" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
+      <c r="F56" s="34">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="G56" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="H56" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="I56" s="30"/>
+      <c r="K56" s="34">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="L56" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="M56" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="N56" s="30"/>
+    </row>
+    <row r="57" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
+      <c r="F57" s="34">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="G57" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="H57" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="I57" s="30"/>
+      <c r="K57" s="34">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="L57" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="M57" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="N57" s="30"/>
+    </row>
+    <row r="58" spans="1:14" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
+      <c r="F58" s="34">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="G58" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="H58" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="I58" s="30"/>
+      <c r="K58" s="34">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="L58" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="M58" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="N58" s="30"/>
+    </row>
+    <row r="59" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
+      <c r="F59" s="34">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="G59" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="H59" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="I59" s="30"/>
+      <c r="K59" s="34">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="L59" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="M59" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="N59" s="30"/>
+    </row>
+    <row r="60" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
+      <c r="F60" s="34">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G60" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="H60" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="I60" s="30"/>
+      <c r="K60" s="34">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="L60" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="M60" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N60" s="30"/>
+    </row>
+    <row r="61" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
+      <c r="F61" s="34">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="G61" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="H61" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="I61" s="30"/>
+      <c r="K61" s="34">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="L61" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="M61" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="N61" s="30"/>
+    </row>
+    <row r="62" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
+      <c r="F62" s="34">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="G62" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="H62" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="I62" s="30"/>
+      <c r="K62" s="34">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="L62" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="M62" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="N62" s="30"/>
+    </row>
+    <row r="63" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
+      <c r="F63" s="34">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G63" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="H63" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="I63" s="30"/>
+      <c r="K63" s="34">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="L63" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="M63" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="N63" s="30"/>
+    </row>
+    <row r="64" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
+      <c r="F64" s="34">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="G64" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="H64" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="I64" s="30"/>
+      <c r="K64" s="34">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="L64" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="M64" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="N64" s="30"/>
+    </row>
+    <row r="65" spans="1:4" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K28:N28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:D28"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F28:I28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
